--- a/test_data/too_many_digits_access_num.xlsx
+++ b/test_data/too_many_digits_access_num.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t xml:space="preserve">Enclosure</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Sex</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifiers</t>
+    <t xml:space="preserve">Internal House Name</t>
   </si>
   <si>
     <t xml:space="preserve">Population _Male</t>
@@ -76,6 +76,9 @@
     <t xml:space="preserve">Population _Unknown</t>
   </si>
   <si>
+    <t xml:space="preserve">Tag /Band</t>
+  </si>
+  <si>
     <t xml:space="preserve">enc1</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal House Name:a round nose</t>
+    <t xml:space="preserve">a round nose</t>
   </si>
   <si>
     <t xml:space="preserve">big bubba</t>
@@ -112,10 +115,10 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal House Name:a square nose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal House Name:a yellow nose</t>
+    <t xml:space="preserve">a square nose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a yellow nose</t>
   </si>
 </sst>
 </file>
@@ -222,18 +225,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="6:6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.55"/>
   </cols>
@@ -293,31 +297,34 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1111111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -325,10 +332,10 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>1</v>
@@ -342,28 +349,28 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1111112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -384,28 +391,28 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1111113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -413,10 +420,10 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="1" t="n">
         <v>0</v>
@@ -430,28 +437,28 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1111114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -459,10 +466,10 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>0</v>
@@ -477,7 +484,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/test_data/too_many_digits_access_num.xlsx
+++ b/test_data/too_many_digits_access_num.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Sex</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal House Name</t>
+    <t xml:space="preserve">Internal  House  Name</t>
   </si>
   <si>
     <t xml:space="preserve">Population _Male</t>
@@ -232,10 +232,10 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.46"/>

--- a/test_data/too_many_digits_access_num.xlsx
+++ b/test_data/too_many_digits_access_num.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t xml:space="preserve">Enclosure</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Sex</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifiers</t>
+    <t xml:space="preserve">Internal  House  Name</t>
   </si>
   <si>
     <t xml:space="preserve">Population _Male</t>
@@ -76,6 +76,9 @@
     <t xml:space="preserve">Population _Unknown</t>
   </si>
   <si>
+    <t xml:space="preserve">Tag /Band</t>
+  </si>
+  <si>
     <t xml:space="preserve">enc1</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal House Name:a round nose</t>
+    <t xml:space="preserve">a round nose</t>
   </si>
   <si>
     <t xml:space="preserve">big bubba</t>
@@ -112,10 +115,10 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal House Name:a square nose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal House Name:a yellow nose</t>
+    <t xml:space="preserve">a square nose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a yellow nose</t>
   </si>
 </sst>
 </file>
@@ -222,18 +225,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="6:6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.55"/>
   </cols>
@@ -293,31 +297,34 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1111111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -325,10 +332,10 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>1</v>
@@ -342,28 +349,28 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1111112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -384,28 +391,28 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1111113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -413,10 +420,10 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="1" t="n">
         <v>0</v>
@@ -430,28 +437,28 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1111114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -459,10 +466,10 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>0</v>
@@ -477,7 +484,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
